--- a/data.xlsx
+++ b/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Imię</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Szymczak</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>123123</t>
@@ -197,64 +200,72 @@
       <c r="C2" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n" s="3">
         <v>2.0</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n" s="4">
         <v>5.0</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
